--- a/data/population_models/models_output_hainich_male.xlsx
+++ b/data/population_models/models_output_hainich_male.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -412,17 +412,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -432,39 +432,39 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~time)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G2">
-        <v>1428.0321</v>
+        <v>1450.908779701121</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9969253024216306</v>
+        <v>0.3263417999935982</v>
       </c>
       <c r="J2">
-        <v>-6450.983</v>
+        <v>-6415.9184</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>~temp + sundur</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -474,29 +474,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F3">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>1440.793012632896</v>
+        <v>1452.55387165109</v>
       </c>
       <c r="H3">
-        <v>12.76091263289572</v>
+        <v>1.645091949969355</v>
       </c>
       <c r="I3">
-        <v>0.001689140007918039</v>
+        <v>0.1433657881530679</v>
       </c>
       <c r="J3">
-        <v>-6440.2623</v>
+        <v>-6416.2983</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -516,39 +516,39 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F4">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>1441.225378723404</v>
+        <v>1452.75267165109</v>
       </c>
       <c r="H4">
-        <v>13.19327872340432</v>
+        <v>1.843891949969475</v>
       </c>
       <c r="I4">
-        <v>0.001360750632443112</v>
+        <v>0.1298005865796189</v>
       </c>
       <c r="J4">
-        <v>-6441.8727</v>
+        <v>-6416.0995</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -558,39 +558,39 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>1450.5231</v>
+        <v>1453.225507965152</v>
       </c>
       <c r="H5">
-        <v>22.49099999999999</v>
+        <v>2.316728264031553</v>
       </c>
       <c r="I5">
-        <v>1.302578850725042E-05</v>
+        <v>0.1024711367593504</v>
       </c>
       <c r="J5">
-        <v>-6428.4921</v>
+        <v>-6411.5793</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -600,29 +600,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>1452.190412632896</v>
+        <v>1454.003279701121</v>
       </c>
       <c r="H6">
-        <v>24.15831263289579</v>
+        <v>3.094499999999925</v>
       </c>
       <c r="I6">
-        <v>5.659156242526116E-06</v>
+        <v>0.06945612778462019</v>
       </c>
       <c r="J6">
-        <v>-6428.8649</v>
+        <v>-6412.824</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F7">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="G7">
-        <v>1453.540741057935</v>
+        <v>1454.356707965153</v>
       </c>
       <c r="H7">
-        <v>25.50864105793471</v>
+        <v>3.447928264031589</v>
       </c>
       <c r="I7">
-        <v>2.880922613697446E-06</v>
+        <v>0.05820557650195467</v>
       </c>
       <c r="J7">
-        <v>-6450.1265</v>
+        <v>-6410.448</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,39 +684,39 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F8">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G8">
-        <v>1455.136010062893</v>
+        <v>1454.548688528678</v>
       </c>
       <c r="H8">
-        <v>27.10391006289319</v>
+        <v>3.639908827557292</v>
       </c>
       <c r="I8">
-        <v>1.297547692159192E-06</v>
+        <v>0.05287818566681132</v>
       </c>
       <c r="J8">
-        <v>-6444.3968</v>
+        <v>-6416.3311</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -726,39 +726,39 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F9">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>1455.895310062893</v>
+        <v>1454.755379701121</v>
       </c>
       <c r="H9">
-        <v>27.86321006289313</v>
+        <v>3.846599999999853</v>
       </c>
       <c r="I9">
-        <v>8.876534176139878E-07</v>
+        <v>0.04768635500364702</v>
       </c>
       <c r="J9">
-        <v>-6443.6374</v>
+        <v>-6412.0718</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -768,39 +768,39 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F10">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>1456.432574575204</v>
+        <v>1455.95227165109</v>
       </c>
       <c r="H10">
-        <v>28.4004745752045</v>
+        <v>5.043491949969393</v>
       </c>
       <c r="I10">
-        <v>6.785438568732699E-07</v>
+        <v>0.02621152824554341</v>
       </c>
       <c r="J10">
-        <v>-6445.1662</v>
+        <v>-6412.8999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -810,39 +810,39 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~1)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F11">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>1458.837042614708</v>
+        <v>1456.280879701121</v>
       </c>
       <c r="H11">
-        <v>30.80494261470767</v>
+        <v>5.372099999999818</v>
       </c>
       <c r="I11">
-        <v>2.039174174413727E-07</v>
+        <v>0.02224006291628408</v>
       </c>
       <c r="J11">
-        <v>-6438.6324</v>
+        <v>-6410.5463</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -852,39 +852,39 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>1461.327310062893</v>
+        <v>1457.077051741293</v>
       </c>
       <c r="H12">
-        <v>33.29521006289315</v>
+        <v>6.168272040172496</v>
       </c>
       <c r="I12">
-        <v>5.870831512063617E-08</v>
+        <v>0.01493652085760562</v>
       </c>
       <c r="J12">
-        <v>-6438.2054</v>
+        <v>-6405.7077</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -894,39 +894,39 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F13">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G13">
-        <v>1461.630474575205</v>
+        <v>1458.966807965152</v>
       </c>
       <c r="H13">
-        <v>33.59837457520462</v>
+        <v>8.058028264031464</v>
       </c>
       <c r="I13">
-        <v>5.045082579112388E-08</v>
+        <v>0.005806228184520676</v>
       </c>
       <c r="J13">
-        <v>-6439.9682</v>
+        <v>-6405.838</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>~temp + sundur</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -936,39 +936,39 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~temp + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F14">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>1462.543674575204</v>
+        <v>1464.411179701121</v>
       </c>
       <c r="H14">
-        <v>34.51157457520458</v>
+        <v>13.50239999999985</v>
       </c>
       <c r="I14">
-        <v>3.19572513751823E-08</v>
+        <v>0.0003816487096762115</v>
       </c>
       <c r="J14">
-        <v>-6439.0551</v>
+        <v>-6402.416</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -978,23 +978,23 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F15">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G15">
-        <v>1462.733412632896</v>
+        <v>1467.394207965152</v>
       </c>
       <c r="H15">
-        <v>34.70131263289568</v>
+        <v>16.4854282640315</v>
       </c>
       <c r="I15">
-        <v>2.906486587035502E-08</v>
+        <v>8.588304641547356E-05</v>
       </c>
       <c r="J15">
-        <v>-6418.3219</v>
+        <v>-6397.4106</v>
       </c>
     </row>
     <row r="16">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1020,39 +1020,39 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F16">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>1468.806212632895</v>
+        <v>1468.134907965152</v>
       </c>
       <c r="H16">
-        <v>40.77411263289559</v>
+        <v>17.22612826403156</v>
       </c>
       <c r="I16">
-        <v>1.395328799861385E-09</v>
+        <v>5.930160938295579E-05</v>
       </c>
       <c r="J16">
-        <v>-6412.2491</v>
+        <v>-6396.6699</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~temp + wind + sundur</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1062,39 +1062,39 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F17">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>1469.972278723404</v>
+        <v>1469.416279701121</v>
       </c>
       <c r="H17">
-        <v>41.94017872340441</v>
+        <v>18.50749999999994</v>
       </c>
       <c r="I17">
-        <v>7.788763624011097E-10</v>
+        <v>3.124785010982008E-05</v>
       </c>
       <c r="J17">
-        <v>-6413.1258</v>
+        <v>-6397.4109</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1104,29 +1104,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>1470.7937</v>
+        <v>1471.32737165109</v>
       </c>
       <c r="H18">
-        <v>42.76160000000004</v>
+        <v>20.41859194996937</v>
       </c>
       <c r="I18">
-        <v>5.165342932242997E-10</v>
+        <v>1.20179889005843E-05</v>
       </c>
       <c r="J18">
-        <v>-6408.2214</v>
+        <v>-6397.5248</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1146,29 +1146,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F19">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G19">
-        <v>1471.2947</v>
+        <v>1472.480251741293</v>
       </c>
       <c r="H19">
-        <v>43.26260000000002</v>
+        <v>21.57147204017247</v>
       </c>
       <c r="I19">
-        <v>4.020762236665851E-10</v>
+        <v>6.75284945469294E-06</v>
       </c>
       <c r="J19">
-        <v>-6407.7204</v>
+        <v>-6390.3045</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1188,39 +1188,39 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F20">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>1473.657412632896</v>
+        <v>1472.538207965152</v>
       </c>
       <c r="H20">
-        <v>45.62531263289566</v>
+        <v>21.6294282640315</v>
       </c>
       <c r="I20">
-        <v>1.233820162340389E-10</v>
+        <v>6.559972725927048E-06</v>
       </c>
       <c r="J20">
-        <v>-6407.398</v>
+        <v>-6392.2665</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1230,39 +1230,39 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F21">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>1480.3876</v>
+        <v>1473.918507965152</v>
       </c>
       <c r="H21">
-        <v>52.35550000000012</v>
+        <v>23.00972826403154</v>
       </c>
       <c r="I21">
-        <v>4.263931754767422E-12</v>
+        <v>3.289831821265321E-06</v>
       </c>
       <c r="J21">
-        <v>-6398.6275</v>
+        <v>-6390.8862</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1272,39 +1272,39 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~1)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F22">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G22">
-        <v>1481.497836039975</v>
+        <v>1473.930579701121</v>
       </c>
       <c r="H22">
-        <v>53.46573603997513</v>
+        <v>23.02179999999998</v>
       </c>
       <c r="I22">
-        <v>2.447516071184435E-12</v>
+        <v>3.270034637399724E-06</v>
       </c>
       <c r="J22">
-        <v>-6395.4796</v>
+        <v>-6392.8966</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1314,39 +1314,39 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F23">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G23">
-        <v>1482.363112632896</v>
+        <v>1474.067579701121</v>
       </c>
       <c r="H23">
-        <v>54.33101263289564</v>
+        <v>23.15879999999993</v>
       </c>
       <c r="I23">
-        <v>1.587936485213647E-12</v>
+        <v>3.053536958715943E-06</v>
       </c>
       <c r="J23">
-        <v>-6398.6922</v>
+        <v>-6392.7596</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1356,39 +1356,39 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F24">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G24">
-        <v>1482.643</v>
+        <v>1474.480407965152</v>
       </c>
       <c r="H24">
-        <v>54.61090000000013</v>
+        <v>23.57162826403146</v>
       </c>
       <c r="I24">
-        <v>1.380563406948479E-12</v>
+        <v>2.48404044293702E-06</v>
       </c>
       <c r="J24">
-        <v>-6396.3721</v>
+        <v>-6390.3243</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1398,39 +1398,39 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~wind)pent(~time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F25">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>1483.1823</v>
+        <v>1474.80977165109</v>
       </c>
       <c r="H25">
-        <v>55.15020000000004</v>
+        <v>23.90099194996947</v>
       </c>
       <c r="I25">
-        <v>1.05426272288329E-12</v>
+        <v>2.106872461931623E-06</v>
       </c>
       <c r="J25">
-        <v>-6395.8328</v>
+        <v>-6394.0424</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1440,23 +1440,23 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~1)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F26">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G26">
-        <v>1488.586736039975</v>
+        <v>1475.743279701121</v>
       </c>
       <c r="H26">
-        <v>60.55463603997509</v>
+        <v>24.83449999999993</v>
       </c>
       <c r="I26">
-        <v>7.069528926380479E-14</v>
+        <v>1.321081312416867E-06</v>
       </c>
       <c r="J26">
-        <v>-6388.3908</v>
+        <v>-6391.0839</v>
       </c>
     </row>
     <row r="27">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1482,23 +1482,23 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27">
-        <v>1514.329851741293</v>
+        <v>1477.311907965152</v>
       </c>
       <c r="H27">
-        <v>86.2977517412935</v>
+        <v>26.40312826403147</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>6.029846403198846E-07</v>
       </c>
       <c r="J27">
-        <v>-6348.455</v>
+        <v>-6387.4929</v>
       </c>
     </row>
     <row r="28">
@@ -1509,12 +1509,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~temp + sundur</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1524,23 +1524,23 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>1522.758506339341</v>
+        <v>1478.922607965153</v>
       </c>
       <c r="H28">
-        <v>94.72640633934134</v>
+        <v>28.01382826403164</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>2.694928135946135E-07</v>
       </c>
       <c r="J28">
-        <v>-6338.0088</v>
+        <v>-6385.8822</v>
       </c>
     </row>
     <row r="29">
@@ -1551,12 +1551,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1566,23 +1566,23 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G29">
-        <v>1547.134206339341</v>
+        <v>1480.425051741293</v>
       </c>
       <c r="H29">
-        <v>119.1021063393414</v>
+        <v>29.51627204017245</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1.271439407294767E-07</v>
       </c>
       <c r="J29">
-        <v>-6313.6331</v>
+        <v>-6382.3597</v>
       </c>
     </row>
     <row r="30">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1608,39 +1608,39 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~1)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G30">
-        <v>1551.145567080745</v>
+        <v>1481.932351741293</v>
       </c>
       <c r="H30">
-        <v>123.1134670807455</v>
+        <v>31.02357204017244</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>5.983973087377943E-08</v>
       </c>
       <c r="J30">
-        <v>-6307.6069</v>
+        <v>-6380.8524</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1650,39 +1650,39 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G31">
-        <v>1593.062806339341</v>
+        <v>1482.278107965152</v>
       </c>
       <c r="H31">
-        <v>165.0307063393414</v>
+        <v>31.36932826403154</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>5.033958392094152E-08</v>
       </c>
       <c r="J31">
-        <v>-6267.7045</v>
+        <v>-6382.5266</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1692,39 +1692,39 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F32">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G32">
-        <v>1596.588167080745</v>
+        <v>1483.955579701121</v>
       </c>
       <c r="H32">
-        <v>168.5560670807454</v>
+        <v>33.04679999999985</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>2.175961777425827E-08</v>
       </c>
       <c r="J32">
-        <v>-6262.1642</v>
+        <v>-6382.8717</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1734,34 +1734,34 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F33">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G33">
-        <v>1608.330867080745</v>
+        <v>1484.300579701121</v>
       </c>
       <c r="H33">
-        <v>180.2987670807454</v>
+        <v>33.39179999999988</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1.831198669930279E-08</v>
       </c>
       <c r="J33">
-        <v>-6250.4215</v>
+        <v>-6382.5266</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1776,39 +1776,39 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>1610.944129298572</v>
+        <v>1486.498107965152</v>
       </c>
       <c r="H34">
-        <v>182.9120292985724</v>
+        <v>35.58932826403156</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>6.103068785677424E-09</v>
       </c>
       <c r="J34">
-        <v>-6245.7958</v>
+        <v>-6378.3066</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1818,23 +1818,2375 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Phi(~time)p(~time)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F35">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G35">
-        <v>2358.611210062893</v>
+        <v>1487.013579701121</v>
       </c>
       <c r="H35">
-        <v>930.5791100628931</v>
+        <v>36.10479999999984</v>
       </c>
       <c r="I35">
+        <v>4.716447445297733E-09</v>
+      </c>
+      <c r="J35">
+        <v>-6379.8136</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F36">
+        <v>7</v>
+      </c>
+      <c r="G36">
+        <v>1488.448751741294</v>
+      </c>
+      <c r="H36">
+        <v>37.53997204017264</v>
+      </c>
+      <c r="I36">
+        <v>2.301290002195606E-09</v>
+      </c>
+      <c r="J36">
+        <v>-6374.336</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F37">
+        <v>8</v>
+      </c>
+      <c r="G37">
+        <v>1489.587407965153</v>
+      </c>
+      <c r="H37">
+        <v>38.67862826403166</v>
+      </c>
+      <c r="I37">
+        <v>1.302312752581007E-09</v>
+      </c>
+      <c r="J37">
+        <v>-6375.2173</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38">
+        <v>1492.166306339341</v>
+      </c>
+      <c r="H38">
+        <v>41.25752663822027</v>
+      </c>
+      <c r="I38">
+        <v>3.586861657981804E-10</v>
+      </c>
+      <c r="J38">
+        <v>-6368.6011</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39">
+        <v>1492.194151741293</v>
+      </c>
+      <c r="H39">
+        <v>41.28537204017243</v>
+      </c>
+      <c r="I39">
+        <v>3.537268889411398E-10</v>
+      </c>
+      <c r="J39">
+        <v>-6370.5906</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>~sundur + wind</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F40">
+        <v>8</v>
+      </c>
+      <c r="G40">
+        <v>1493.479607965153</v>
+      </c>
+      <c r="H40">
+        <v>42.57082826403166</v>
+      </c>
+      <c r="I40">
+        <v>1.860093615347205E-10</v>
+      </c>
+      <c r="J40">
+        <v>-6371.3251</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F41">
+        <v>6</v>
+      </c>
+      <c r="G41">
+        <v>1493.649306339341</v>
+      </c>
+      <c r="H41">
+        <v>42.74052663822022</v>
+      </c>
+      <c r="I41">
+        <v>1.708776521953947E-10</v>
+      </c>
+      <c r="J41">
+        <v>-6367.118</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F42">
+        <v>8</v>
+      </c>
+      <c r="G42">
+        <v>1493.909407965152</v>
+      </c>
+      <c r="H42">
+        <v>43.00062826403155</v>
+      </c>
+      <c r="I42">
+        <v>1.500392615146672E-10</v>
+      </c>
+      <c r="J42">
+        <v>-6370.8954</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43">
+        <v>1493.921951741293</v>
+      </c>
+      <c r="H43">
+        <v>43.01317204017255</v>
+      </c>
+      <c r="I43">
+        <v>1.491011769161525E-10</v>
+      </c>
+      <c r="J43">
+        <v>-6368.8628</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>~sundur + wind</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44">
+        <v>1493.968051741293</v>
+      </c>
+      <c r="H44">
+        <v>43.05927204017257</v>
+      </c>
+      <c r="I44">
+        <v>1.457037011194077E-10</v>
+      </c>
+      <c r="J44">
+        <v>-6368.8167</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F45">
+        <v>7</v>
+      </c>
+      <c r="G45">
+        <v>1494.821551741293</v>
+      </c>
+      <c r="H45">
+        <v>43.91277204017251</v>
+      </c>
+      <c r="I45">
+        <v>9.509012396479633E-11</v>
+      </c>
+      <c r="J45">
+        <v>-6367.9632</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F46">
+        <v>8</v>
+      </c>
+      <c r="G46">
+        <v>1498.609307965153</v>
+      </c>
+      <c r="H46">
+        <v>47.70052826403162</v>
+      </c>
+      <c r="I46">
+        <v>1.430983414391326E-11</v>
+      </c>
+      <c r="J46">
+        <v>-6366.1955</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>1500.602679701121</v>
+      </c>
+      <c r="H47">
+        <v>49.69389999999999</v>
+      </c>
+      <c r="I47">
+        <v>5.281769294775616E-12</v>
+      </c>
+      <c r="J47">
+        <v>-6366.2245</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>~sundur + wind</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F48">
+        <v>7</v>
+      </c>
+      <c r="G48">
+        <v>1502.613651741294</v>
+      </c>
+      <c r="H48">
+        <v>51.70487204017263</v>
+      </c>
+      <c r="I48">
+        <v>1.932423887529331E-12</v>
+      </c>
+      <c r="J48">
+        <v>-6360.1711</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49">
+        <v>1502.815306339341</v>
+      </c>
+      <c r="H49">
+        <v>51.90652663822016</v>
+      </c>
+      <c r="I49">
+        <v>1.747083482446036E-12</v>
+      </c>
+      <c r="J49">
+        <v>-6357.952</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50">
+        <v>1505.829651741293</v>
+      </c>
+      <c r="H50">
+        <v>54.92087204017253</v>
+      </c>
+      <c r="I50">
+        <v>3.870409085110756E-13</v>
+      </c>
+      <c r="J50">
+        <v>-6356.9552</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51">
+        <v>1506.721207965152</v>
+      </c>
+      <c r="H51">
+        <v>55.8124282640315</v>
+      </c>
+      <c r="I51">
+        <v>2.47832293681768E-13</v>
+      </c>
+      <c r="J51">
+        <v>-6358.0836</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52">
+        <v>1507.741407965153</v>
+      </c>
+      <c r="H52">
+        <v>56.83262826403165</v>
+      </c>
+      <c r="I52">
+        <v>1.488073151672149E-13</v>
+      </c>
+      <c r="J52">
+        <v>-6357.0633</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F53">
+        <v>9</v>
+      </c>
+      <c r="G53">
+        <v>1508.581679701121</v>
+      </c>
+      <c r="H53">
+        <v>57.6728999999998</v>
+      </c>
+      <c r="I53">
+        <v>9.776008982713603E-14</v>
+      </c>
+      <c r="J53">
+        <v>-6358.2456</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54">
+        <v>1510.368151741294</v>
+      </c>
+      <c r="H54">
+        <v>59.45937204017264</v>
+      </c>
+      <c r="I54">
+        <v>4.001604081853621E-14</v>
+      </c>
+      <c r="J54">
+        <v>-6352.4167</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F55">
+        <v>8</v>
+      </c>
+      <c r="G55">
+        <v>1510.453707965152</v>
+      </c>
+      <c r="H55">
+        <v>59.54492826403157</v>
+      </c>
+      <c r="I55">
+        <v>3.834032760301847E-14</v>
+      </c>
+      <c r="J55">
+        <v>-6354.351</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56">
+        <v>1510.600906339341</v>
+      </c>
+      <c r="H56">
+        <v>59.69212663822032</v>
+      </c>
+      <c r="I56">
+        <v>3.561985101270756E-14</v>
+      </c>
+      <c r="J56">
+        <v>-6350.1665</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="G57">
+        <v>1510.62997165109</v>
+      </c>
+      <c r="H57">
+        <v>59.72119194996935</v>
+      </c>
+      <c r="I57">
+        <v>3.510594324268772E-14</v>
+      </c>
+      <c r="J57">
+        <v>-6358.2222</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F58">
+        <v>7</v>
+      </c>
+      <c r="G58">
+        <v>1511.407951741293</v>
+      </c>
+      <c r="H58">
+        <v>60.49917204017243</v>
+      </c>
+      <c r="I58">
+        <v>2.379273766984361E-14</v>
+      </c>
+      <c r="J58">
+        <v>-6351.3768</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59">
+        <v>1511.431307965152</v>
+      </c>
+      <c r="H59">
+        <v>60.52252826403151</v>
+      </c>
+      <c r="I59">
+        <v>2.351649952560896E-14</v>
+      </c>
+      <c r="J59">
+        <v>-6353.3734</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <v>1511.565451741293</v>
+      </c>
+      <c r="H60">
+        <v>60.65667204017245</v>
+      </c>
+      <c r="I60">
+        <v>2.19909365657657E-14</v>
+      </c>
+      <c r="J60">
+        <v>-6351.2193</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61">
+        <v>1512.031007965152</v>
+      </c>
+      <c r="H61">
+        <v>61.12222826403149</v>
+      </c>
+      <c r="I61">
+        <v>1.742406474892564E-14</v>
+      </c>
+      <c r="J61">
+        <v>-6352.7738</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F62">
+        <v>7</v>
+      </c>
+      <c r="G62">
+        <v>1513.962751741293</v>
+      </c>
+      <c r="H62">
+        <v>63.05397204017254</v>
+      </c>
+      <c r="I62">
+        <v>6.632490629348094E-15</v>
+      </c>
+      <c r="J62">
+        <v>-6348.822</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63">
+        <v>1514.087506339341</v>
+      </c>
+      <c r="H63">
+        <v>63.17872663822027</v>
+      </c>
+      <c r="I63">
+        <v>6.23141288973515E-15</v>
+      </c>
+      <c r="J63">
+        <v>-6346.6798</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>~temp + wind + sundur</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F64">
+        <v>7</v>
+      </c>
+      <c r="G64">
+        <v>1514.329851741293</v>
+      </c>
+      <c r="H64">
+        <v>63.42107204017248</v>
+      </c>
+      <c r="I64">
+        <v>5.520289994751856E-15</v>
+      </c>
+      <c r="J64">
+        <v>-6348.455</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>1516.104951741293</v>
+      </c>
+      <c r="H65">
+        <v>65.19617204017254</v>
+      </c>
+      <c r="I65">
+        <v>2.272499652581767E-15</v>
+      </c>
+      <c r="J65">
+        <v>-6346.6799</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+      <c r="G66">
+        <v>1517.504907965152</v>
+      </c>
+      <c r="H66">
+        <v>66.59612826403145</v>
+      </c>
+      <c r="I66">
+        <v>1.12851463108072E-15</v>
+      </c>
+      <c r="J66">
+        <v>-6347.2998</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F67">
+        <v>5</v>
+      </c>
+      <c r="G67">
+        <v>1517.782867080745</v>
+      </c>
+      <c r="H67">
+        <v>66.87408737962437</v>
+      </c>
+      <c r="I67">
         <v>0</v>
       </c>
-      <c r="J35">
-        <v>-5540.9215</v>
+      <c r="J67">
+        <v>-6340.9695</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F68">
+        <v>6</v>
+      </c>
+      <c r="G68">
+        <v>1518.790606339341</v>
+      </c>
+      <c r="H68">
+        <v>67.88182663822022</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>-6341.9768</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F69">
+        <v>6</v>
+      </c>
+      <c r="G69">
+        <v>1518.972406339341</v>
+      </c>
+      <c r="H69">
+        <v>68.06362663822028</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>-6341.795</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F70">
+        <v>6</v>
+      </c>
+      <c r="G70">
+        <v>1519.556906339341</v>
+      </c>
+      <c r="H70">
+        <v>68.64812663822022</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>-6341.2104</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71">
+        <v>1520.410151741293</v>
+      </c>
+      <c r="H71">
+        <v>69.50137204017255</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>-6342.3747</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+      <c r="G72">
+        <v>1520.823551741293</v>
+      </c>
+      <c r="H72">
+        <v>69.91477204017247</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>-6341.9612</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>~temp + sundur</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F73">
+        <v>6</v>
+      </c>
+      <c r="G73">
+        <v>1522.758506339341</v>
+      </c>
+      <c r="H73">
+        <v>71.84972663822032</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>-6338.0088</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F74">
+        <v>8</v>
+      </c>
+      <c r="G74">
+        <v>1523.470507965153</v>
+      </c>
+      <c r="H74">
+        <v>72.56172826403167</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>-6341.3342</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75">
+        <v>1523.560951741293</v>
+      </c>
+      <c r="H75">
+        <v>72.65217204017245</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>-6339.2238</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76">
+        <v>1524.191251741293</v>
+      </c>
+      <c r="H76">
+        <v>73.28247204017248</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>-6338.5935</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F77">
+        <v>6</v>
+      </c>
+      <c r="G77">
+        <v>1524.728706339341</v>
+      </c>
+      <c r="H77">
+        <v>73.81992663822029</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>-6336.0387</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F78">
+        <v>9</v>
+      </c>
+      <c r="G78">
+        <v>1526.675179701121</v>
+      </c>
+      <c r="H78">
+        <v>75.76639999999998</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>-6340.1521</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F79">
+        <v>7</v>
+      </c>
+      <c r="G79">
+        <v>1528.162951741293</v>
+      </c>
+      <c r="H79">
+        <v>77.25417204017253</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>-6334.6218</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F80">
+        <v>6</v>
+      </c>
+      <c r="G80">
+        <v>1532.820006339341</v>
+      </c>
+      <c r="H80">
+        <v>81.91122663822034</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>-6327.9473</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
+      <c r="G81">
+        <v>1537.733106339341</v>
+      </c>
+      <c r="H81">
+        <v>86.82432663822033</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>-6323.0343</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F82">
+        <v>7</v>
+      </c>
+      <c r="G82">
+        <v>1538.563251741293</v>
+      </c>
+      <c r="H82">
+        <v>87.65447204017255</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>-6324.2215</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F83">
+        <v>5</v>
+      </c>
+      <c r="G83">
+        <v>1540.514367080745</v>
+      </c>
+      <c r="H83">
+        <v>89.60558737962447</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>-6318.238</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F84">
+        <v>6</v>
+      </c>
+      <c r="G84">
+        <v>1541.078106339341</v>
+      </c>
+      <c r="H84">
+        <v>90.16932663822035</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>-6319.6892</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F85">
+        <v>6</v>
+      </c>
+      <c r="G85">
+        <v>1547.134206339341</v>
+      </c>
+      <c r="H85">
+        <v>96.22542663822037</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>-6313.6331</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+      <c r="G86">
+        <v>1551.145567080745</v>
+      </c>
+      <c r="H86">
+        <v>100.2367873796245</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>-6307.6069</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F87">
+        <v>5</v>
+      </c>
+      <c r="G87">
+        <v>1566.417367080745</v>
+      </c>
+      <c r="H87">
+        <v>115.5085873796245</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>-6292.335</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>~sundur + wind</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F88">
+        <v>6</v>
+      </c>
+      <c r="G88">
+        <v>1593.062806339341</v>
+      </c>
+      <c r="H88">
+        <v>142.1540266382203</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>-6267.7045</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F89">
+        <v>5</v>
+      </c>
+      <c r="G89">
+        <v>1596.588167080745</v>
+      </c>
+      <c r="H89">
+        <v>145.6793873796244</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>-6262.1642</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F90">
+        <v>5</v>
+      </c>
+      <c r="G90">
+        <v>1608.330867080745</v>
+      </c>
+      <c r="H90">
+        <v>157.4220873796244</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>-6250.4215</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>1610.944129298572</v>
+      </c>
+      <c r="H91">
+        <v>160.0353495974514</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>-6245.7958</v>
       </c>
     </row>
   </sheetData>

--- a/data/population_models/models_output_hainich_male.xlsx
+++ b/data/population_models/models_output_hainich_male.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:J181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3263417999935982</v>
+        <v>0.1631708999967993</v>
       </c>
       <c r="J2">
         <v>-6415.9184</v>
@@ -464,39 +464,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time)N(~Time)</t>
         </is>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>1452.55387165109</v>
+        <v>1450.908779701121</v>
       </c>
       <c r="H3">
-        <v>1.645091949969355</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1433657881530679</v>
+        <v>0.1631708999967993</v>
       </c>
       <c r="J3">
-        <v>-6416.2983</v>
+        <v>-6415.9184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -506,7 +506,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -516,23 +516,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4">
-        <v>1452.75267165109</v>
+        <v>1452.55387165109</v>
       </c>
       <c r="H4">
-        <v>1.843891949969475</v>
+        <v>1.645091949969355</v>
       </c>
       <c r="I4">
-        <v>0.1298005865796189</v>
+        <v>0.07168289407653404</v>
       </c>
       <c r="J4">
-        <v>-6416.0995</v>
+        <v>-6416.2983</v>
       </c>
     </row>
     <row r="5">
@@ -543,38 +543,38 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>~temp + sundur</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~temp + sundur)pent(~Time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>1453.225507965152</v>
+        <v>1452.55387165109</v>
       </c>
       <c r="H5">
-        <v>2.316728264031553</v>
+        <v>1.645091949969355</v>
       </c>
       <c r="I5">
-        <v>0.1024711367593504</v>
+        <v>0.07168289407653404</v>
       </c>
       <c r="J5">
-        <v>-6411.5793</v>
+        <v>-6416.2983</v>
       </c>
     </row>
     <row r="6">
@@ -585,7 +585,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>~temp + sundur</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,29 +600,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>1454.003279701121</v>
+        <v>1452.75267165109</v>
       </c>
       <c r="H6">
-        <v>3.094499999999925</v>
+        <v>1.843891949969475</v>
       </c>
       <c r="I6">
-        <v>0.06945612778462019</v>
+        <v>0.06490029328980952</v>
       </c>
       <c r="J6">
-        <v>-6412.824</v>
+        <v>-6416.0995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -632,49 +632,49 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~Time)</t>
         </is>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>1454.356707965153</v>
+        <v>1452.75267165109</v>
       </c>
       <c r="H7">
-        <v>3.447928264031589</v>
+        <v>1.843891949969475</v>
       </c>
       <c r="I7">
-        <v>0.05820557650195467</v>
+        <v>0.06490029328980952</v>
       </c>
       <c r="J7">
-        <v>-6410.448</v>
+        <v>-6416.0995</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>~temp + wind + sundur</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -684,23 +684,23 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>1454.548688528678</v>
+        <v>1453.225507965152</v>
       </c>
       <c r="H8">
-        <v>3.639908827557292</v>
+        <v>2.316728264031553</v>
       </c>
       <c r="I8">
-        <v>0.05287818566681132</v>
+        <v>0.05123556837967523</v>
       </c>
       <c r="J8">
-        <v>-6416.3311</v>
+        <v>-6411.5793</v>
       </c>
     </row>
     <row r="9">
@@ -716,33 +716,33 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time)N(~Time)</t>
         </is>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>1454.755379701121</v>
+        <v>1453.225507965152</v>
       </c>
       <c r="H9">
-        <v>3.846599999999853</v>
+        <v>2.316728264031553</v>
       </c>
       <c r="I9">
-        <v>0.04768635500364702</v>
+        <v>0.05123556837967523</v>
       </c>
       <c r="J9">
-        <v>-6412.0718</v>
+        <v>-6411.5793</v>
       </c>
     </row>
     <row r="10">
@@ -758,7 +758,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -768,23 +768,23 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>1455.95227165109</v>
+        <v>1454.003279701121</v>
       </c>
       <c r="H10">
-        <v>5.043491949969393</v>
+        <v>3.094499999999925</v>
       </c>
       <c r="I10">
-        <v>0.02621152824554341</v>
+        <v>0.03472806389231013</v>
       </c>
       <c r="J10">
-        <v>-6412.8999</v>
+        <v>-6412.824</v>
       </c>
     </row>
     <row r="11">
@@ -795,38 +795,38 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>~temp + wind + sundur</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time)N(~Time)</t>
         </is>
       </c>
       <c r="F11">
         <v>9</v>
       </c>
       <c r="G11">
-        <v>1456.280879701121</v>
+        <v>1454.003279701121</v>
       </c>
       <c r="H11">
-        <v>5.372099999999818</v>
+        <v>3.094499999999925</v>
       </c>
       <c r="I11">
-        <v>0.02224006291628408</v>
+        <v>0.03472806389231013</v>
       </c>
       <c r="J11">
-        <v>-6410.5463</v>
+        <v>-6412.824</v>
       </c>
     </row>
     <row r="12">
@@ -837,7 +837,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>~temp + sundur</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -852,34 +852,34 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>1457.077051741293</v>
+        <v>1454.356707965153</v>
       </c>
       <c r="H12">
-        <v>6.168272040172496</v>
+        <v>3.447928264031589</v>
       </c>
       <c r="I12">
-        <v>0.01493652085760562</v>
+        <v>0.02910278825097736</v>
       </c>
       <c r="J12">
-        <v>-6405.7077</v>
+        <v>-6410.448</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>~temp + sundur</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -889,34 +889,34 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind + sundur)pent(~1)N(~Time)</t>
         </is>
       </c>
       <c r="F13">
         <v>8</v>
       </c>
       <c r="G13">
-        <v>1458.966807965152</v>
+        <v>1454.356707965153</v>
       </c>
       <c r="H13">
-        <v>8.058028264031464</v>
+        <v>3.447928264031589</v>
       </c>
       <c r="I13">
-        <v>0.005806228184520676</v>
+        <v>0.02910278825097736</v>
       </c>
       <c r="J13">
-        <v>-6405.838</v>
+        <v>-6410.448</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -936,34 +936,34 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G14">
-        <v>1464.411179701121</v>
+        <v>1454.548688528678</v>
       </c>
       <c r="H14">
-        <v>13.50239999999985</v>
+        <v>3.639908827557292</v>
       </c>
       <c r="I14">
-        <v>0.0003816487096762115</v>
+        <v>0.02643909283340569</v>
       </c>
       <c r="J14">
-        <v>-6402.416</v>
+        <v>-6416.3311</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -973,34 +973,34 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G15">
-        <v>1467.394207965152</v>
+        <v>1454.548688528678</v>
       </c>
       <c r="H15">
-        <v>16.4854282640315</v>
+        <v>3.639908827557292</v>
       </c>
       <c r="I15">
-        <v>8.588304641547356E-05</v>
+        <v>0.02643909283340569</v>
       </c>
       <c r="J15">
-        <v>-6397.4106</v>
+        <v>-6416.3311</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1020,23 +1020,23 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>1468.134907965152</v>
+        <v>1454.755379701121</v>
       </c>
       <c r="H16">
-        <v>17.22612826403156</v>
+        <v>3.846599999999853</v>
       </c>
       <c r="I16">
-        <v>5.930160938295579E-05</v>
+        <v>0.02384317750182354</v>
       </c>
       <c r="J16">
-        <v>-6396.6699</v>
+        <v>-6412.0718</v>
       </c>
     </row>
     <row r="17">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1057,28 +1057,28 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F17">
         <v>9</v>
       </c>
       <c r="G17">
-        <v>1469.416279701121</v>
+        <v>1454.755379701121</v>
       </c>
       <c r="H17">
-        <v>18.50749999999994</v>
+        <v>3.846599999999853</v>
       </c>
       <c r="I17">
-        <v>3.124785010982008E-05</v>
+        <v>0.02384317750182354</v>
       </c>
       <c r="J17">
-        <v>-6397.4109</v>
+        <v>-6412.0718</v>
       </c>
     </row>
     <row r="18">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1104,81 +1104,81 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F18">
         <v>10</v>
       </c>
       <c r="G18">
-        <v>1471.32737165109</v>
+        <v>1455.95227165109</v>
       </c>
       <c r="H18">
-        <v>20.41859194996937</v>
+        <v>5.043491949969393</v>
       </c>
       <c r="I18">
-        <v>1.20179889005843E-05</v>
+        <v>0.01310576412277172</v>
       </c>
       <c r="J18">
-        <v>-6397.5248</v>
+        <v>-6412.8999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~sundur)pent(~Time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F19">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>1472.480251741293</v>
+        <v>1455.95227165109</v>
       </c>
       <c r="H19">
-        <v>21.57147204017247</v>
+        <v>5.043491949969393</v>
       </c>
       <c r="I19">
-        <v>6.75284945469294E-06</v>
+        <v>0.01310576412277172</v>
       </c>
       <c r="J19">
-        <v>-6390.3045</v>
+        <v>-6412.8999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1188,81 +1188,81 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~sundur + wind)pent(~Time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G20">
-        <v>1472.538207965152</v>
+        <v>1456.280879701121</v>
       </c>
       <c r="H20">
-        <v>21.6294282640315</v>
+        <v>5.372099999999818</v>
       </c>
       <c r="I20">
-        <v>6.559972725927048E-06</v>
+        <v>0.01112003145814205</v>
       </c>
       <c r="J20">
-        <v>-6392.2665</v>
+        <v>-6410.5463</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~1)N(~Time)</t>
         </is>
       </c>
       <c r="F21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21">
-        <v>1473.918507965152</v>
+        <v>1456.280879701121</v>
       </c>
       <c r="H21">
-        <v>23.00972826403154</v>
+        <v>5.372099999999818</v>
       </c>
       <c r="I21">
-        <v>3.289831821265321E-06</v>
+        <v>0.01112003145814205</v>
       </c>
       <c r="J21">
-        <v>-6390.8862</v>
+        <v>-6410.5463</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1272,23 +1272,23 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>1473.930579701121</v>
+        <v>1457.077051741293</v>
       </c>
       <c r="H22">
-        <v>23.02179999999998</v>
+        <v>6.168272040172496</v>
       </c>
       <c r="I22">
-        <v>3.270034637399724E-06</v>
+        <v>0.007468260428802816</v>
       </c>
       <c r="J22">
-        <v>-6392.8966</v>
+        <v>-6405.7077</v>
       </c>
     </row>
     <row r="23">
@@ -1299,38 +1299,38 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time)p(~temp + sundur)pent(~1)N(~Time)</t>
         </is>
       </c>
       <c r="F23">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G23">
-        <v>1474.067579701121</v>
+        <v>1457.077051741293</v>
       </c>
       <c r="H23">
-        <v>23.15879999999993</v>
+        <v>6.168272040172496</v>
       </c>
       <c r="I23">
-        <v>3.053536958715943E-06</v>
+        <v>0.007468260428802816</v>
       </c>
       <c r="J23">
-        <v>-6392.7596</v>
+        <v>-6405.7077</v>
       </c>
     </row>
     <row r="24">
@@ -1341,12 +1341,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1356,23 +1356,23 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F24">
         <v>8</v>
       </c>
       <c r="G24">
-        <v>1474.480407965152</v>
+        <v>1458.966807965152</v>
       </c>
       <c r="H24">
-        <v>23.57162826403146</v>
+        <v>8.058028264031464</v>
       </c>
       <c r="I24">
-        <v>2.48404044293702E-06</v>
+        <v>0.002903114092260341</v>
       </c>
       <c r="J24">
-        <v>-6390.3243</v>
+        <v>-6405.838</v>
       </c>
     </row>
     <row r="25">
@@ -1383,49 +1383,49 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + sundur)pent(~1)N(~Time)</t>
         </is>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>1474.80977165109</v>
+        <v>1458.966807965152</v>
       </c>
       <c r="H25">
-        <v>23.90099194996947</v>
+        <v>8.058028264031464</v>
       </c>
       <c r="I25">
-        <v>2.106872461931623E-06</v>
+        <v>0.002903114092260341</v>
       </c>
       <c r="J25">
-        <v>-6394.0424</v>
+        <v>-6405.838</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1440,23 +1440,23 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F26">
         <v>9</v>
       </c>
       <c r="G26">
-        <v>1475.743279701121</v>
+        <v>1464.411179701121</v>
       </c>
       <c r="H26">
-        <v>24.83449999999993</v>
+        <v>13.50239999999985</v>
       </c>
       <c r="I26">
-        <v>1.321081312416867E-06</v>
+        <v>0.0001908243548381059</v>
       </c>
       <c r="J26">
-        <v>-6391.0839</v>
+        <v>-6402.416</v>
       </c>
     </row>
     <row r="27">
@@ -1472,44 +1472,44 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G27">
-        <v>1477.311907965152</v>
+        <v>1464.411179701121</v>
       </c>
       <c r="H27">
-        <v>26.40312826403147</v>
+        <v>13.50239999999985</v>
       </c>
       <c r="I27">
-        <v>6.029846403198846E-07</v>
+        <v>0.0001908243548381059</v>
       </c>
       <c r="J27">
-        <v>-6387.4929</v>
+        <v>-6402.416</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1524,65 +1524,65 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F28">
         <v>8</v>
       </c>
       <c r="G28">
-        <v>1478.922607965153</v>
+        <v>1467.394207965152</v>
       </c>
       <c r="H28">
-        <v>28.01382826403164</v>
+        <v>16.4854282640315</v>
       </c>
       <c r="I28">
-        <v>2.694928135946135E-07</v>
+        <v>4.294152320773683E-05</v>
       </c>
       <c r="J28">
-        <v>-6385.8822</v>
+        <v>-6397.4106</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>~temp + sundur</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~Time)N(~1)</t>
+          <t>Phi(~Time)p(~temp)pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G29">
-        <v>1480.425051741293</v>
+        <v>1467.394207965152</v>
       </c>
       <c r="H29">
-        <v>29.51627204017245</v>
+        <v>16.4854282640315</v>
       </c>
       <c r="I29">
-        <v>1.271439407294767E-07</v>
+        <v>4.294152320773683E-05</v>
       </c>
       <c r="J29">
-        <v>-6382.3597</v>
+        <v>-6397.4106</v>
       </c>
     </row>
     <row r="30">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1608,71 +1608,71 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>1481.932351741293</v>
+        <v>1468.134907965152</v>
       </c>
       <c r="H30">
-        <v>31.02357204017244</v>
+        <v>17.22612826403156</v>
       </c>
       <c r="I30">
-        <v>5.983973087377943E-08</v>
+        <v>2.965080469147793E-05</v>
       </c>
       <c r="J30">
-        <v>-6380.8524</v>
+        <v>-6396.6699</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time)N(~1)</t>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F31">
         <v>8</v>
       </c>
       <c r="G31">
-        <v>1482.278107965152</v>
+        <v>1468.134907965152</v>
       </c>
       <c r="H31">
-        <v>31.36932826403154</v>
+        <v>17.22612826403156</v>
       </c>
       <c r="I31">
-        <v>5.033958392094152E-08</v>
+        <v>2.965080469147793E-05</v>
       </c>
       <c r="J31">
-        <v>-6382.5266</v>
+        <v>-6396.6699</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1692,34 +1692,34 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F32">
         <v>9</v>
       </c>
       <c r="G32">
-        <v>1483.955579701121</v>
+        <v>1469.416279701121</v>
       </c>
       <c r="H32">
-        <v>33.04679999999985</v>
+        <v>18.50749999999994</v>
       </c>
       <c r="I32">
-        <v>2.175961777425827E-08</v>
+        <v>1.562392505491006E-05</v>
       </c>
       <c r="J32">
-        <v>-6382.8717</v>
+        <v>-6397.4109</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1729,28 +1729,28 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F33">
         <v>9</v>
       </c>
       <c r="G33">
-        <v>1484.300579701121</v>
+        <v>1469.416279701121</v>
       </c>
       <c r="H33">
-        <v>33.39179999999988</v>
+        <v>18.50749999999994</v>
       </c>
       <c r="I33">
-        <v>1.831198669930279E-08</v>
+        <v>1.562392505491006E-05</v>
       </c>
       <c r="J33">
-        <v>-6382.5266</v>
+        <v>-6397.4109</v>
       </c>
     </row>
     <row r="34">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1776,34 +1776,34 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F34">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G34">
-        <v>1486.498107965152</v>
+        <v>1471.32737165109</v>
       </c>
       <c r="H34">
-        <v>35.58932826403156</v>
+        <v>20.41859194996937</v>
       </c>
       <c r="I34">
-        <v>6.103068785677424E-09</v>
+        <v>6.008994450292156E-06</v>
       </c>
       <c r="J34">
-        <v>-6378.3066</v>
+        <v>-6397.5248</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1813,44 +1813,44 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F35">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G35">
-        <v>1487.013579701121</v>
+        <v>1471.32737165109</v>
       </c>
       <c r="H35">
-        <v>36.10479999999984</v>
+        <v>20.41859194996937</v>
       </c>
       <c r="I35">
-        <v>4.716447445297733E-09</v>
+        <v>6.008994450292156E-06</v>
       </c>
       <c r="J35">
-        <v>-6379.8136</v>
+        <v>-6397.5248</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1860,65 +1860,65 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F36">
         <v>7</v>
       </c>
       <c r="G36">
-        <v>1488.448751741294</v>
+        <v>1472.480251741293</v>
       </c>
       <c r="H36">
-        <v>37.53997204017264</v>
+        <v>21.57147204017247</v>
       </c>
       <c r="I36">
-        <v>2.301290002195606E-09</v>
+        <v>3.376424727346473E-06</v>
       </c>
       <c r="J36">
-        <v>-6374.336</v>
+        <v>-6390.3045</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time)N(~Time)</t>
         </is>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G37">
-        <v>1489.587407965153</v>
+        <v>1472.480251741293</v>
       </c>
       <c r="H37">
-        <v>38.67862826403166</v>
+        <v>21.57147204017247</v>
       </c>
       <c r="I37">
-        <v>1.302312752581007E-09</v>
+        <v>3.376424727346473E-06</v>
       </c>
       <c r="J37">
-        <v>-6375.2173</v>
+        <v>-6390.3045</v>
       </c>
     </row>
     <row r="38">
@@ -1929,12 +1929,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1944,23 +1944,23 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G38">
-        <v>1492.166306339341</v>
+        <v>1472.538207965152</v>
       </c>
       <c r="H38">
-        <v>41.25752663822027</v>
+        <v>21.6294282640315</v>
       </c>
       <c r="I38">
-        <v>3.586861657981804E-10</v>
+        <v>3.279986362963527E-06</v>
       </c>
       <c r="J38">
-        <v>-6368.6011</v>
+        <v>-6392.2665</v>
       </c>
     </row>
     <row r="39">
@@ -1971,54 +1971,54 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time)N(~Time)</t>
         </is>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G39">
-        <v>1492.194151741293</v>
+        <v>1472.538207965152</v>
       </c>
       <c r="H39">
-        <v>41.28537204017243</v>
+        <v>21.6294282640315</v>
       </c>
       <c r="I39">
-        <v>3.537268889411398E-10</v>
+        <v>3.279986362963527E-06</v>
       </c>
       <c r="J39">
-        <v>-6370.5906</v>
+        <v>-6392.2665</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2028,23 +2028,23 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F40">
         <v>8</v>
       </c>
       <c r="G40">
-        <v>1493.479607965153</v>
+        <v>1473.918507965152</v>
       </c>
       <c r="H40">
-        <v>42.57082826403166</v>
+        <v>23.00972826403154</v>
       </c>
       <c r="I40">
-        <v>1.860093615347205E-10</v>
+        <v>1.644915910632662E-06</v>
       </c>
       <c r="J40">
-        <v>-6371.3251</v>
+        <v>-6390.8862</v>
       </c>
     </row>
     <row r="41">
@@ -2060,44 +2060,44 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G41">
-        <v>1493.649306339341</v>
+        <v>1473.918507965152</v>
       </c>
       <c r="H41">
-        <v>42.74052663822022</v>
+        <v>23.00972826403154</v>
       </c>
       <c r="I41">
-        <v>1.708776521953947E-10</v>
+        <v>1.644915910632662E-06</v>
       </c>
       <c r="J41">
-        <v>-6367.118</v>
+        <v>-6390.8862</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2112,34 +2112,34 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~temp + wind)pent(~Time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G42">
-        <v>1493.909407965152</v>
+        <v>1473.930579701121</v>
       </c>
       <c r="H42">
-        <v>43.00062826403155</v>
+        <v>23.02179999999998</v>
       </c>
       <c r="I42">
-        <v>1.500392615146672E-10</v>
+        <v>1.635017318699864E-06</v>
       </c>
       <c r="J42">
-        <v>-6370.8954</v>
+        <v>-6392.8966</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2149,28 +2149,28 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~temp)pent(~Time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~Time)</t>
         </is>
       </c>
       <c r="F43">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G43">
-        <v>1493.921951741293</v>
+        <v>1473.930579701121</v>
       </c>
       <c r="H43">
-        <v>43.01317204017255</v>
+        <v>23.02179999999998</v>
       </c>
       <c r="I43">
-        <v>1.491011769161525E-10</v>
+        <v>1.635017318699864E-06</v>
       </c>
       <c r="J43">
-        <v>-6368.8628</v>
+        <v>-6392.8966</v>
       </c>
     </row>
     <row r="44">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2196,65 +2196,65 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F44">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G44">
-        <v>1493.968051741293</v>
+        <v>1474.067579701121</v>
       </c>
       <c r="H44">
-        <v>43.05927204017257</v>
+        <v>23.15879999999993</v>
       </c>
       <c r="I44">
-        <v>1.457037011194077E-10</v>
+        <v>1.526768479357973E-06</v>
       </c>
       <c r="J44">
-        <v>-6368.8167</v>
+        <v>-6392.7596</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G45">
-        <v>1494.821551741293</v>
+        <v>1474.067579701121</v>
       </c>
       <c r="H45">
-        <v>43.91277204017251</v>
+        <v>23.15879999999993</v>
       </c>
       <c r="I45">
-        <v>9.509012396479633E-11</v>
+        <v>1.526768479357973E-06</v>
       </c>
       <c r="J45">
-        <v>-6367.9632</v>
+        <v>-6392.7596</v>
       </c>
     </row>
     <row r="46">
@@ -2265,12 +2265,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2280,23 +2280,23 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F46">
         <v>8</v>
       </c>
       <c r="G46">
-        <v>1498.609307965153</v>
+        <v>1474.480407965152</v>
       </c>
       <c r="H46">
-        <v>47.70052826403162</v>
+        <v>23.57162826403146</v>
       </c>
       <c r="I46">
-        <v>1.430983414391326E-11</v>
+        <v>1.242020221468511E-06</v>
       </c>
       <c r="J46">
-        <v>-6366.1955</v>
+        <v>-6390.3243</v>
       </c>
     </row>
     <row r="47">
@@ -2307,44 +2307,44 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time)N(~Time)</t>
         </is>
       </c>
       <c r="F47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G47">
-        <v>1500.602679701121</v>
+        <v>1474.480407965152</v>
       </c>
       <c r="H47">
-        <v>49.69389999999999</v>
+        <v>23.57162826403146</v>
       </c>
       <c r="I47">
-        <v>5.281769294775616E-12</v>
+        <v>1.242020221468511E-06</v>
       </c>
       <c r="J47">
-        <v>-6366.2245</v>
+        <v>-6390.3243</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2364,65 +2364,65 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~Time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F48">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G48">
-        <v>1502.613651741294</v>
+        <v>1474.80977165109</v>
       </c>
       <c r="H48">
-        <v>51.70487204017263</v>
+        <v>23.90099194996947</v>
       </c>
       <c r="I48">
-        <v>1.932423887529331E-12</v>
+        <v>1.053436230965812E-06</v>
       </c>
       <c r="J48">
-        <v>-6360.1711</v>
+        <v>-6394.0424</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>~sundur</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~Time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G49">
-        <v>1502.815306339341</v>
+        <v>1474.80977165109</v>
       </c>
       <c r="H49">
-        <v>51.90652663822016</v>
+        <v>23.90099194996947</v>
       </c>
       <c r="I49">
-        <v>1.747083482446036E-12</v>
+        <v>1.053436230965812E-06</v>
       </c>
       <c r="J49">
-        <v>-6357.952</v>
+        <v>-6394.0424</v>
       </c>
     </row>
     <row r="50">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2448,23 +2448,23 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G50">
-        <v>1505.829651741293</v>
+        <v>1475.743279701121</v>
       </c>
       <c r="H50">
-        <v>54.92087204017253</v>
+        <v>24.83449999999993</v>
       </c>
       <c r="I50">
-        <v>3.870409085110756E-13</v>
+        <v>6.60540656208434E-07</v>
       </c>
       <c r="J50">
-        <v>-6356.9552</v>
+        <v>-6391.0839</v>
       </c>
     </row>
     <row r="51">
@@ -2475,49 +2475,49 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G51">
-        <v>1506.721207965152</v>
+        <v>1475.743279701121</v>
       </c>
       <c r="H51">
-        <v>55.8124282640315</v>
+        <v>24.83449999999993</v>
       </c>
       <c r="I51">
-        <v>2.47832293681768E-13</v>
+        <v>6.60540656208434E-07</v>
       </c>
       <c r="J51">
-        <v>-6358.0836</v>
+        <v>-6391.0839</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2532,34 +2532,34 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time)N(~1)</t>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F52">
         <v>8</v>
       </c>
       <c r="G52">
-        <v>1507.741407965153</v>
+        <v>1477.311907965152</v>
       </c>
       <c r="H52">
-        <v>56.83262826403165</v>
+        <v>26.40312826403147</v>
       </c>
       <c r="I52">
-        <v>1.488073151672149E-13</v>
+        <v>3.014923201599426E-07</v>
       </c>
       <c r="J52">
-        <v>-6357.0633</v>
+        <v>-6387.4929</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~temp + wind + sundur</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2569,39 +2569,39 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~Time)N(~Time)</t>
         </is>
       </c>
       <c r="F53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G53">
-        <v>1508.581679701121</v>
+        <v>1477.311907965152</v>
       </c>
       <c r="H53">
-        <v>57.6728999999998</v>
+        <v>26.40312826403147</v>
       </c>
       <c r="I53">
-        <v>9.776008982713603E-14</v>
+        <v>3.014923201599426E-07</v>
       </c>
       <c r="J53">
-        <v>-6358.2456</v>
+        <v>-6387.4929</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2616,76 +2616,76 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~1)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G54">
-        <v>1510.368151741294</v>
+        <v>1478.922607965153</v>
       </c>
       <c r="H54">
-        <v>59.45937204017264</v>
+        <v>28.01382826403164</v>
       </c>
       <c r="I54">
-        <v>4.001604081853621E-14</v>
+        <v>1.347464067973069E-07</v>
       </c>
       <c r="J54">
-        <v>-6352.4167</v>
+        <v>-6385.8822</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F55">
         <v>8</v>
       </c>
       <c r="G55">
-        <v>1510.453707965152</v>
+        <v>1478.922607965153</v>
       </c>
       <c r="H55">
-        <v>59.54492826403157</v>
+        <v>28.01382826403164</v>
       </c>
       <c r="I55">
-        <v>3.834032760301847E-14</v>
+        <v>1.347464067973069E-07</v>
       </c>
       <c r="J55">
-        <v>-6354.351</v>
+        <v>-6385.8822</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2700,81 +2700,81 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~1)pent(~Time)N(~1)</t>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F56">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G56">
-        <v>1510.600906339341</v>
+        <v>1480.425051741293</v>
       </c>
       <c r="H56">
-        <v>59.69212663822032</v>
+        <v>29.51627204017245</v>
       </c>
       <c r="I56">
-        <v>3.561985101270756E-14</v>
+        <v>6.357197036473843E-08</v>
       </c>
       <c r="J56">
-        <v>-6350.1665</v>
+        <v>-6382.3597</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~temp + sundur</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~1)p(~temp + sundur)pent(~Time)N(~Time)</t>
         </is>
       </c>
       <c r="F57">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G57">
-        <v>1510.62997165109</v>
+        <v>1480.425051741293</v>
       </c>
       <c r="H57">
-        <v>59.72119194996935</v>
+        <v>29.51627204017245</v>
       </c>
       <c r="I57">
-        <v>3.510594324268772E-14</v>
+        <v>6.357197036473843E-08</v>
       </c>
       <c r="J57">
-        <v>-6358.2222</v>
+        <v>-6382.3597</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2784,34 +2784,34 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~wind)pent(~Time)N(~1)</t>
+          <t>Phi(~1)p(~sundur)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F58">
         <v>7</v>
       </c>
       <c r="G58">
-        <v>1511.407951741293</v>
+        <v>1481.932351741293</v>
       </c>
       <c r="H58">
-        <v>60.49917204017243</v>
+        <v>31.02357204017244</v>
       </c>
       <c r="I58">
-        <v>2.379273766984361E-14</v>
+        <v>2.991986543688975E-08</v>
       </c>
       <c r="J58">
-        <v>-6351.3768</v>
+        <v>-6380.8524</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2821,39 +2821,39 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~1)p(~sundur)pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F59">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59">
-        <v>1511.431307965152</v>
+        <v>1481.932351741293</v>
       </c>
       <c r="H59">
-        <v>60.52252826403151</v>
+        <v>31.02357204017244</v>
       </c>
       <c r="I59">
-        <v>2.351649952560896E-14</v>
+        <v>2.991986543688975E-08</v>
       </c>
       <c r="J59">
-        <v>-6353.3734</v>
+        <v>-6380.8524</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2868,76 +2868,76 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~Time)pent(~Time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F60">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G60">
-        <v>1511.565451741293</v>
+        <v>1482.278107965152</v>
       </c>
       <c r="H60">
-        <v>60.65667204017245</v>
+        <v>31.36932826403154</v>
       </c>
       <c r="I60">
-        <v>2.19909365657657E-14</v>
+        <v>2.516979196047079E-08</v>
       </c>
       <c r="J60">
-        <v>-6351.2193</v>
+        <v>-6382.5266</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time)N(~Time)</t>
         </is>
       </c>
       <c r="F61">
         <v>8</v>
       </c>
       <c r="G61">
-        <v>1512.031007965152</v>
+        <v>1482.278107965152</v>
       </c>
       <c r="H61">
-        <v>61.12222826403149</v>
+        <v>31.36932826403154</v>
       </c>
       <c r="I61">
-        <v>1.742406474892564E-14</v>
+        <v>2.516979196047079E-08</v>
       </c>
       <c r="J61">
-        <v>-6352.7738</v>
+        <v>-6382.5266</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2952,81 +2952,81 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F62">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G62">
-        <v>1513.962751741293</v>
+        <v>1483.955579701121</v>
       </c>
       <c r="H62">
-        <v>63.05397204017254</v>
+        <v>33.04679999999985</v>
       </c>
       <c r="I62">
-        <v>6.632490629348094E-15</v>
+        <v>1.087980888712915E-08</v>
       </c>
       <c r="J62">
-        <v>-6348.822</v>
+        <v>-6382.8717</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~Time)N(~Time)</t>
         </is>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G63">
-        <v>1514.087506339341</v>
+        <v>1483.955579701121</v>
       </c>
       <c r="H63">
-        <v>63.17872663822027</v>
+        <v>33.04679999999985</v>
       </c>
       <c r="I63">
-        <v>6.23141288973515E-15</v>
+        <v>1.087980888712915E-08</v>
       </c>
       <c r="J63">
-        <v>-6346.6798</v>
+        <v>-6382.8717</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>~temp + wind + sundur</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -3036,71 +3036,71 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G64">
-        <v>1514.329851741293</v>
+        <v>1484.300579701121</v>
       </c>
       <c r="H64">
-        <v>63.42107204017248</v>
+        <v>33.39179999999988</v>
       </c>
       <c r="I64">
-        <v>5.520289994751856E-15</v>
+        <v>9.155993349651404E-09</v>
       </c>
       <c r="J64">
-        <v>-6348.455</v>
+        <v>-6382.5266</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F65">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G65">
-        <v>1516.104951741293</v>
+        <v>1484.300579701121</v>
       </c>
       <c r="H65">
-        <v>65.19617204017254</v>
+        <v>33.39179999999988</v>
       </c>
       <c r="I65">
-        <v>2.272499652581767E-15</v>
+        <v>9.155993349651404E-09</v>
       </c>
       <c r="J65">
-        <v>-6346.6799</v>
+        <v>-6382.5266</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -3120,34 +3120,34 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F66">
         <v>8</v>
       </c>
       <c r="G66">
-        <v>1517.504907965152</v>
+        <v>1486.498107965152</v>
       </c>
       <c r="H66">
-        <v>66.59612826403145</v>
+        <v>35.58932826403156</v>
       </c>
       <c r="I66">
-        <v>1.12851463108072E-15</v>
+        <v>3.051534392838716E-09</v>
       </c>
       <c r="J66">
-        <v>-6347.2998</v>
+        <v>-6378.3066</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3157,28 +3157,28 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~1)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~1)N(~Time)</t>
         </is>
       </c>
       <c r="F67">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G67">
-        <v>1517.782867080745</v>
+        <v>1486.498107965152</v>
       </c>
       <c r="H67">
-        <v>66.87408737962437</v>
+        <v>35.58932826403156</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>3.051534392838716E-09</v>
       </c>
       <c r="J67">
-        <v>-6340.9695</v>
+        <v>-6378.3066</v>
       </c>
     </row>
     <row r="68">
@@ -3189,12 +3189,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3204,76 +3204,76 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G68">
-        <v>1518.790606339341</v>
+        <v>1487.013579701121</v>
       </c>
       <c r="H68">
-        <v>67.88182663822022</v>
+        <v>36.10479999999984</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2.358223722648869E-09</v>
       </c>
       <c r="J68">
-        <v>-6341.9768</v>
+        <v>-6379.8136</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~1)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~Time)</t>
         </is>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G69">
-        <v>1518.972406339341</v>
+        <v>1487.013579701121</v>
       </c>
       <c r="H69">
-        <v>68.06362663822028</v>
+        <v>36.10479999999984</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2.358223722648869E-09</v>
       </c>
       <c r="J69">
-        <v>-6341.795</v>
+        <v>-6379.8136</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3288,23 +3288,23 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Phi(~Time)p(~Time)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G70">
-        <v>1519.556906339341</v>
+        <v>1488.448751741294</v>
       </c>
       <c r="H70">
-        <v>68.64812663822022</v>
+        <v>37.53997204017264</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1.150645001097804E-09</v>
       </c>
       <c r="J70">
-        <v>-6341.2104</v>
+        <v>-6374.336</v>
       </c>
     </row>
     <row r="71">
@@ -3315,7 +3315,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3325,28 +3325,28 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp)pent(~1)N(~Time)</t>
         </is>
       </c>
       <c r="F71">
         <v>7</v>
       </c>
       <c r="G71">
-        <v>1520.410151741293</v>
+        <v>1488.448751741294</v>
       </c>
       <c r="H71">
-        <v>69.50137204017255</v>
+        <v>37.53997204017264</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1.150645001097804E-09</v>
       </c>
       <c r="J71">
-        <v>-6342.3747</v>
+        <v>-6374.336</v>
       </c>
     </row>
     <row r="72">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3372,34 +3372,34 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~Time)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F72">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G72">
-        <v>1520.823551741293</v>
+        <v>1489.587407965153</v>
       </c>
       <c r="H72">
-        <v>69.91477204017247</v>
+        <v>38.67862826403166</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>6.511563762905045E-10</v>
       </c>
       <c r="J72">
-        <v>-6341.9612</v>
+        <v>-6375.2173</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>~temp + sundur</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3409,44 +3409,44 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~temp + wind)pent(~1)N(~Time)</t>
         </is>
       </c>
       <c r="F73">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G73">
-        <v>1522.758506339341</v>
+        <v>1489.587407965153</v>
       </c>
       <c r="H73">
-        <v>71.84972663822032</v>
+        <v>38.67862826403166</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>6.511563762905045E-10</v>
       </c>
       <c r="J73">
-        <v>-6338.0088</v>
+        <v>-6375.2173</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3456,29 +3456,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time)p(~temp)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F74">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G74">
-        <v>1523.470507965153</v>
+        <v>1492.166306339341</v>
       </c>
       <c r="H74">
-        <v>72.56172826403167</v>
+        <v>41.25752663822027</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1.793430828990904E-10</v>
       </c>
       <c r="J74">
-        <v>-6341.3342</v>
+        <v>-6368.6011</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3488,39 +3488,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time)p(~temp)pent(~1)N(~Time)</t>
         </is>
       </c>
       <c r="F75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G75">
-        <v>1523.560951741293</v>
+        <v>1492.166306339341</v>
       </c>
       <c r="H75">
-        <v>72.65217204017245</v>
+        <v>41.25752663822027</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1.793430828990904E-10</v>
       </c>
       <c r="J75">
-        <v>-6339.2238</v>
+        <v>-6368.6011</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3530,7 +3530,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3540,65 +3540,65 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~Time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F76">
         <v>7</v>
       </c>
       <c r="G76">
-        <v>1524.191251741293</v>
+        <v>1492.194151741293</v>
       </c>
       <c r="H76">
-        <v>73.28247204017248</v>
+        <v>41.28537204017243</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1.768634444705701E-10</v>
       </c>
       <c r="J76">
-        <v>-6338.5935</v>
+        <v>-6370.5906</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~Time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind)pent(~1)N(~Time)</t>
         </is>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G77">
-        <v>1524.728706339341</v>
+        <v>1492.194151741293</v>
       </c>
       <c r="H77">
-        <v>73.81992663822029</v>
+        <v>41.28537204017243</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1.768634444705701E-10</v>
       </c>
       <c r="J77">
-        <v>-6336.0387</v>
+        <v>-6370.5906</v>
       </c>
     </row>
     <row r="78">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3624,81 +3624,81 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G78">
-        <v>1526.675179701121</v>
+        <v>1493.479607965153</v>
       </c>
       <c r="H78">
-        <v>75.76639999999998</v>
+        <v>42.57082826403166</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>9.300468076736033E-11</v>
       </c>
       <c r="J78">
-        <v>-6340.1521</v>
+        <v>-6371.3251</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~1)N(~Time)</t>
         </is>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G79">
-        <v>1528.162951741293</v>
+        <v>1493.479607965153</v>
       </c>
       <c r="H79">
-        <v>77.25417204017253</v>
+        <v>42.57082826403166</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>9.300468076736033E-11</v>
       </c>
       <c r="J79">
-        <v>-6334.6218</v>
+        <v>-6371.3251</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3708,81 +3708,81 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~Time)pent(~Time)N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F80">
         <v>6</v>
       </c>
       <c r="G80">
-        <v>1532.820006339341</v>
+        <v>1493.649306339341</v>
       </c>
       <c r="H80">
-        <v>81.91122663822034</v>
+        <v>42.74052663822022</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>8.543882609769746E-11</v>
       </c>
       <c r="J80">
-        <v>-6327.9473</v>
+        <v>-6367.118</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~1)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time)p(~sundur)pent(~1)N(~Time)</t>
         </is>
       </c>
       <c r="F81">
         <v>6</v>
       </c>
       <c r="G81">
-        <v>1537.733106339341</v>
+        <v>1493.649306339341</v>
       </c>
       <c r="H81">
-        <v>86.82432663822033</v>
+        <v>42.74052663822022</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>8.543882609769746E-11</v>
       </c>
       <c r="J81">
-        <v>-6323.0343</v>
+        <v>-6367.118</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>~Time + I(Time^2)</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3792,34 +3792,34 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F82">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G82">
-        <v>1538.563251741293</v>
+        <v>1493.909407965152</v>
       </c>
       <c r="H82">
-        <v>87.65447204017255</v>
+        <v>43.00062826403155</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>7.501963075733368E-11</v>
       </c>
       <c r="J82">
-        <v>-6324.2215</v>
+        <v>-6370.8954</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~temp + wind</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3829,39 +3829,39 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~1)pent(~Time)N(~1)</t>
+          <t>Phi(~Time)p(~temp + wind)pent(~Time)N(~Time)</t>
         </is>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G83">
-        <v>1540.514367080745</v>
+        <v>1493.909407965152</v>
       </c>
       <c r="H83">
-        <v>89.60558737962447</v>
+        <v>43.00062826403155</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>7.501963075733368E-11</v>
       </c>
       <c r="J83">
-        <v>-6318.238</v>
+        <v>-6370.8954</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3876,76 +3876,76 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~wind)pent(~Time)N(~1)</t>
+          <t>Phi(~Time)p(~temp)pent(~Time)N(~1)</t>
         </is>
       </c>
       <c r="F84">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G84">
-        <v>1541.078106339341</v>
+        <v>1493.921951741293</v>
       </c>
       <c r="H84">
-        <v>90.16932663822035</v>
+        <v>43.01317204017255</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>7.455058845807636E-11</v>
       </c>
       <c r="J84">
-        <v>-6319.6892</v>
+        <v>-6368.8628</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>~temp + wind</t>
+          <t>~temp</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~temp)pent(~Time)N(~Time)</t>
         </is>
       </c>
       <c r="F85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G85">
-        <v>1547.134206339341</v>
+        <v>1493.921951741293</v>
       </c>
       <c r="H85">
-        <v>96.22542663822037</v>
+        <v>43.01317204017255</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>7.455058845807636E-11</v>
       </c>
       <c r="J85">
-        <v>-6313.6331</v>
+        <v>-6368.8628</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>~temp</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3960,34 +3960,34 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F86">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G86">
-        <v>1551.145567080745</v>
+        <v>1493.968051741293</v>
       </c>
       <c r="H86">
-        <v>100.2367873796245</v>
+        <v>43.05927204017257</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>7.285185055970391E-11</v>
       </c>
       <c r="J86">
-        <v>-6307.6069</v>
+        <v>-6368.8167</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>~Time</t>
+          <t>~sundur + wind</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3997,39 +3997,39 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~Time)pent(~1)N(~1)</t>
+          <t>Phi(~Time)p(~sundur + wind)pent(~1)N(~Time)</t>
         </is>
       </c>
       <c r="F87">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G87">
-        <v>1566.417367080745</v>
+        <v>1493.968051741293</v>
       </c>
       <c r="H87">
-        <v>115.5085873796245</v>
+        <v>43.05927204017257</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>7.285185055970391E-11</v>
       </c>
       <c r="J87">
-        <v>-6292.335</v>
+        <v>-6368.8167</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>~sundur + wind</t>
+          <t>~sundur</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4044,29 +4044,29 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~1)N(~1)</t>
         </is>
       </c>
       <c r="F88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G88">
-        <v>1593.062806339341</v>
+        <v>1494.821551741293</v>
       </c>
       <c r="H88">
-        <v>142.1540266382203</v>
+        <v>43.91277204017251</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>4.754506198239822E-11</v>
       </c>
       <c r="J88">
-        <v>-6267.7045</v>
+        <v>-6367.9632</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4081,44 +4081,44 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~sundur)pent(~1)N(~Time)</t>
         </is>
       </c>
       <c r="F89">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G89">
-        <v>1596.588167080745</v>
+        <v>1494.821551741293</v>
       </c>
       <c r="H89">
-        <v>145.6793873796244</v>
+        <v>43.91277204017251</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>4.754506198239822E-11</v>
       </c>
       <c r="J89">
-        <v>-6262.1642</v>
+        <v>-6367.9632</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>~wind</t>
+          <t>~1</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -4128,29 +4128,29 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G90">
-        <v>1608.330867080745</v>
+        <v>1498.609307965153</v>
       </c>
       <c r="H90">
-        <v>157.4220873796244</v>
+        <v>47.70052826403162</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>7.154917071956639E-12</v>
       </c>
       <c r="J90">
-        <v>-6250.4215</v>
+        <v>-6366.1955</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4160,32 +4160,3812 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time + I(Time^2)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>~1</t>
+          <t>~Time</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time + I(Time^2))N(~Time)</t>
+        </is>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91">
+        <v>1498.609307965153</v>
+      </c>
+      <c r="H91">
+        <v>47.70052826403162</v>
+      </c>
+      <c r="I91">
+        <v>7.154917071956639E-12</v>
+      </c>
+      <c r="J91">
+        <v>-6366.1955</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F92">
+        <v>9</v>
+      </c>
+      <c r="G92">
+        <v>1500.602679701121</v>
+      </c>
+      <c r="H92">
+        <v>49.69389999999999</v>
+      </c>
+      <c r="I92">
+        <v>2.640884647387811E-12</v>
+      </c>
+      <c r="J92">
+        <v>-6366.2245</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time + I(Time^2))N(~Time)</t>
+        </is>
+      </c>
+      <c r="F93">
+        <v>9</v>
+      </c>
+      <c r="G93">
+        <v>1500.602679701121</v>
+      </c>
+      <c r="H93">
+        <v>49.69389999999999</v>
+      </c>
+      <c r="I93">
+        <v>2.640884647387811E-12</v>
+      </c>
+      <c r="J93">
+        <v>-6366.2245</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>~sundur + wind</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F94">
+        <v>7</v>
+      </c>
+      <c r="G94">
+        <v>1502.613651741294</v>
+      </c>
+      <c r="H94">
+        <v>51.70487204017263</v>
+      </c>
+      <c r="I94">
+        <v>9.662119437646666E-13</v>
+      </c>
+      <c r="J94">
+        <v>-6360.1711</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>~sundur + wind</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur + wind)pent(~Time)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F95">
+        <v>7</v>
+      </c>
+      <c r="G95">
+        <v>1502.613651741294</v>
+      </c>
+      <c r="H95">
+        <v>51.70487204017263</v>
+      </c>
+      <c r="I95">
+        <v>9.662119437646666E-13</v>
+      </c>
+      <c r="J95">
+        <v>-6360.1711</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F96">
+        <v>6</v>
+      </c>
+      <c r="G96">
+        <v>1502.815306339341</v>
+      </c>
+      <c r="H96">
+        <v>51.90652663822016</v>
+      </c>
+      <c r="I96">
+        <v>8.735417412230189E-13</v>
+      </c>
+      <c r="J96">
+        <v>-6357.952</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur)pent(~Time)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F97">
+        <v>6</v>
+      </c>
+      <c r="G97">
+        <v>1502.815306339341</v>
+      </c>
+      <c r="H97">
+        <v>51.90652663822016</v>
+      </c>
+      <c r="I97">
+        <v>8.735417412230189E-13</v>
+      </c>
+      <c r="J97">
+        <v>-6357.952</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F98">
+        <v>7</v>
+      </c>
+      <c r="G98">
+        <v>1505.829651741293</v>
+      </c>
+      <c r="H98">
+        <v>54.92087204017253</v>
+      </c>
+      <c r="I98">
+        <v>1.93520454255538E-13</v>
+      </c>
+      <c r="J98">
+        <v>-6356.9552</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~Time)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F99">
+        <v>7</v>
+      </c>
+      <c r="G99">
+        <v>1505.829651741293</v>
+      </c>
+      <c r="H99">
+        <v>54.92087204017253</v>
+      </c>
+      <c r="I99">
+        <v>1.93520454255538E-13</v>
+      </c>
+      <c r="J99">
+        <v>-6356.9552</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F100">
+        <v>8</v>
+      </c>
+      <c r="G100">
+        <v>1506.721207965152</v>
+      </c>
+      <c r="H100">
+        <v>55.8124282640315</v>
+      </c>
+      <c r="I100">
+        <v>1.239161468408842E-13</v>
+      </c>
+      <c r="J100">
+        <v>-6358.0836</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F101">
+        <v>8</v>
+      </c>
+      <c r="G101">
+        <v>1506.721207965152</v>
+      </c>
+      <c r="H101">
+        <v>55.8124282640315</v>
+      </c>
+      <c r="I101">
+        <v>1.239161468408842E-13</v>
+      </c>
+      <c r="J101">
+        <v>-6358.0836</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F102">
+        <v>8</v>
+      </c>
+      <c r="G102">
+        <v>1507.741407965153</v>
+      </c>
+      <c r="H102">
+        <v>56.83262826403165</v>
+      </c>
+      <c r="I102">
+        <v>7.440365758360751E-14</v>
+      </c>
+      <c r="J102">
+        <v>-6357.0633</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~Time)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F103">
+        <v>8</v>
+      </c>
+      <c r="G103">
+        <v>1507.741407965153</v>
+      </c>
+      <c r="H103">
+        <v>56.83262826403165</v>
+      </c>
+      <c r="I103">
+        <v>7.440365758360751E-14</v>
+      </c>
+      <c r="J103">
+        <v>-6357.0633</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F104">
+        <v>9</v>
+      </c>
+      <c r="G104">
+        <v>1508.581679701121</v>
+      </c>
+      <c r="H104">
+        <v>57.6728999999998</v>
+      </c>
+      <c r="I104">
+        <v>4.888004491356806E-14</v>
+      </c>
+      <c r="J104">
+        <v>-6358.2456</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F105">
+        <v>9</v>
+      </c>
+      <c r="G105">
+        <v>1508.581679701121</v>
+      </c>
+      <c r="H105">
+        <v>57.6728999999998</v>
+      </c>
+      <c r="I105">
+        <v>4.888004491356806E-14</v>
+      </c>
+      <c r="J105">
+        <v>-6358.2456</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F106">
+        <v>7</v>
+      </c>
+      <c r="G106">
+        <v>1510.368151741294</v>
+      </c>
+      <c r="H106">
+        <v>59.45937204017264</v>
+      </c>
+      <c r="I106">
+        <v>2.000802040926813E-14</v>
+      </c>
+      <c r="J106">
+        <v>-6352.4167</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time + I(Time^2))N(~Time)</t>
+        </is>
+      </c>
+      <c r="F107">
+        <v>7</v>
+      </c>
+      <c r="G107">
+        <v>1510.368151741294</v>
+      </c>
+      <c r="H107">
+        <v>59.45937204017264</v>
+      </c>
+      <c r="I107">
+        <v>2.000802040926813E-14</v>
+      </c>
+      <c r="J107">
+        <v>-6352.4167</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F108">
+        <v>8</v>
+      </c>
+      <c r="G108">
+        <v>1510.453707965152</v>
+      </c>
+      <c r="H108">
+        <v>59.54492826403157</v>
+      </c>
+      <c r="I108">
+        <v>1.917016380150926E-14</v>
+      </c>
+      <c r="J108">
+        <v>-6354.351</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~Time)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F109">
+        <v>8</v>
+      </c>
+      <c r="G109">
+        <v>1510.453707965152</v>
+      </c>
+      <c r="H109">
+        <v>59.54492826403157</v>
+      </c>
+      <c r="I109">
+        <v>1.917016380150926E-14</v>
+      </c>
+      <c r="J109">
+        <v>-6354.351</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F110">
+        <v>6</v>
+      </c>
+      <c r="G110">
+        <v>1510.600906339341</v>
+      </c>
+      <c r="H110">
+        <v>59.69212663822032</v>
+      </c>
+      <c r="I110">
+        <v>1.78099255063538E-14</v>
+      </c>
+      <c r="J110">
+        <v>-6350.1665</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~Time)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F111">
+        <v>6</v>
+      </c>
+      <c r="G111">
+        <v>1510.600906339341</v>
+      </c>
+      <c r="H111">
+        <v>59.69212663822032</v>
+      </c>
+      <c r="I111">
+        <v>1.78099255063538E-14</v>
+      </c>
+      <c r="J111">
+        <v>-6350.1665</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112">
+        <v>1510.62997165109</v>
+      </c>
+      <c r="H112">
+        <v>59.72119194996935</v>
+      </c>
+      <c r="I112">
+        <v>1.755297162134388E-14</v>
+      </c>
+      <c r="J112">
+        <v>-6358.2222</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~Time)</t>
+        </is>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="G113">
+        <v>1510.62997165109</v>
+      </c>
+      <c r="H113">
+        <v>59.72119194996935</v>
+      </c>
+      <c r="I113">
+        <v>1.755297162134388E-14</v>
+      </c>
+      <c r="J113">
+        <v>-6358.2222</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F114">
+        <v>7</v>
+      </c>
+      <c r="G114">
+        <v>1511.407951741293</v>
+      </c>
+      <c r="H114">
+        <v>60.49917204017243</v>
+      </c>
+      <c r="I114">
+        <v>1.189636883492182E-14</v>
+      </c>
+      <c r="J114">
+        <v>-6351.3768</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F115">
+        <v>7</v>
+      </c>
+      <c r="G115">
+        <v>1511.407951741293</v>
+      </c>
+      <c r="H115">
+        <v>60.49917204017243</v>
+      </c>
+      <c r="I115">
+        <v>1.189636883492182E-14</v>
+      </c>
+      <c r="J115">
+        <v>-6351.3768</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F116">
+        <v>8</v>
+      </c>
+      <c r="G116">
+        <v>1511.431307965152</v>
+      </c>
+      <c r="H116">
+        <v>60.52252826403151</v>
+      </c>
+      <c r="I116">
+        <v>1.175824976280449E-14</v>
+      </c>
+      <c r="J116">
+        <v>-6353.3734</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~Time + I(Time^2))N(~Time)</t>
+        </is>
+      </c>
+      <c r="F117">
+        <v>8</v>
+      </c>
+      <c r="G117">
+        <v>1511.431307965152</v>
+      </c>
+      <c r="H117">
+        <v>60.52252826403151</v>
+      </c>
+      <c r="I117">
+        <v>1.175824976280449E-14</v>
+      </c>
+      <c r="J117">
+        <v>-6353.3734</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F118">
+        <v>7</v>
+      </c>
+      <c r="G118">
+        <v>1511.565451741293</v>
+      </c>
+      <c r="H118">
+        <v>60.65667204017245</v>
+      </c>
+      <c r="I118">
+        <v>1.099546828288286E-14</v>
+      </c>
+      <c r="J118">
+        <v>-6351.2193</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~Time)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F119">
+        <v>7</v>
+      </c>
+      <c r="G119">
+        <v>1511.565451741293</v>
+      </c>
+      <c r="H119">
+        <v>60.65667204017245</v>
+      </c>
+      <c r="I119">
+        <v>1.099546828288286E-14</v>
+      </c>
+      <c r="J119">
+        <v>-6351.2193</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F120">
+        <v>8</v>
+      </c>
+      <c r="G120">
+        <v>1512.031007965152</v>
+      </c>
+      <c r="H120">
+        <v>61.12222826403149</v>
+      </c>
+      <c r="I120">
+        <v>8.712032374462832E-15</v>
+      </c>
+      <c r="J120">
+        <v>-6352.7738</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~Time + I(Time^2))N(~Time)</t>
+        </is>
+      </c>
+      <c r="F121">
+        <v>8</v>
+      </c>
+      <c r="G121">
+        <v>1512.031007965152</v>
+      </c>
+      <c r="H121">
+        <v>61.12222826403149</v>
+      </c>
+      <c r="I121">
+        <v>8.712032374462832E-15</v>
+      </c>
+      <c r="J121">
+        <v>-6352.7738</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F122">
+        <v>7</v>
+      </c>
+      <c r="G122">
+        <v>1513.962751741293</v>
+      </c>
+      <c r="H122">
+        <v>63.05397204017254</v>
+      </c>
+      <c r="I122">
+        <v>3.31624531467405E-15</v>
+      </c>
+      <c r="J122">
+        <v>-6348.822</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F123">
+        <v>7</v>
+      </c>
+      <c r="G123">
+        <v>1513.962751741293</v>
+      </c>
+      <c r="H123">
+        <v>63.05397204017254</v>
+      </c>
+      <c r="I123">
+        <v>3.31624531467405E-15</v>
+      </c>
+      <c r="J123">
+        <v>-6348.822</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F124">
+        <v>6</v>
+      </c>
+      <c r="G124">
+        <v>1514.087506339341</v>
+      </c>
+      <c r="H124">
+        <v>63.17872663822027</v>
+      </c>
+      <c r="I124">
+        <v>3.115706444867578E-15</v>
+      </c>
+      <c r="J124">
+        <v>-6346.6798</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F125">
+        <v>6</v>
+      </c>
+      <c r="G125">
+        <v>1514.087506339341</v>
+      </c>
+      <c r="H125">
+        <v>63.17872663822027</v>
+      </c>
+      <c r="I125">
+        <v>3.115706444867578E-15</v>
+      </c>
+      <c r="J125">
+        <v>-6346.6798</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>~temp + wind + sundur</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F126">
+        <v>7</v>
+      </c>
+      <c r="G126">
+        <v>1514.329851741293</v>
+      </c>
+      <c r="H126">
+        <v>63.42107204017248</v>
+      </c>
+      <c r="I126">
+        <v>2.760144997375931E-15</v>
+      </c>
+      <c r="J126">
+        <v>-6348.455</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>~temp + wind + sundur</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind + sundur)pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F127">
+        <v>7</v>
+      </c>
+      <c r="G127">
+        <v>1514.329851741293</v>
+      </c>
+      <c r="H127">
+        <v>63.42107204017248</v>
+      </c>
+      <c r="I127">
+        <v>2.760144997375931E-15</v>
+      </c>
+      <c r="J127">
+        <v>-6348.455</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F128">
+        <v>7</v>
+      </c>
+      <c r="G128">
+        <v>1516.104951741293</v>
+      </c>
+      <c r="H128">
+        <v>65.19617204017254</v>
+      </c>
+      <c r="I128">
+        <v>1.136249826290885E-15</v>
+      </c>
+      <c r="J128">
+        <v>-6346.6799</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time + I(Time^2))pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F129">
+        <v>7</v>
+      </c>
+      <c r="G129">
+        <v>1516.104951741293</v>
+      </c>
+      <c r="H129">
+        <v>65.19617204017254</v>
+      </c>
+      <c r="I129">
+        <v>1.136249826290885E-15</v>
+      </c>
+      <c r="J129">
+        <v>-6346.6799</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F130">
+        <v>8</v>
+      </c>
+      <c r="G130">
+        <v>1517.504907965152</v>
+      </c>
+      <c r="H130">
+        <v>66.59612826403145</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>-6347.2998</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time + I(Time^2))pent(~Time + I(Time^2))N(~Time)</t>
+        </is>
+      </c>
+      <c r="F131">
+        <v>8</v>
+      </c>
+      <c r="G131">
+        <v>1517.504907965152</v>
+      </c>
+      <c r="H131">
+        <v>66.59612826403145</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>-6347.2998</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F132">
+        <v>5</v>
+      </c>
+      <c r="G132">
+        <v>1517.782867080745</v>
+      </c>
+      <c r="H132">
+        <v>66.87408737962437</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>-6340.9695</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~1)pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F133">
+        <v>5</v>
+      </c>
+      <c r="G133">
+        <v>1517.782867080745</v>
+      </c>
+      <c r="H133">
+        <v>66.87408737962437</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>-6340.9695</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F134">
+        <v>6</v>
+      </c>
+      <c r="G134">
+        <v>1518.790606339341</v>
+      </c>
+      <c r="H134">
+        <v>67.88182663822022</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>-6341.9768</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~wind)pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F135">
+        <v>6</v>
+      </c>
+      <c r="G135">
+        <v>1518.790606339341</v>
+      </c>
+      <c r="H135">
+        <v>67.88182663822022</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>-6341.9768</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F136">
+        <v>6</v>
+      </c>
+      <c r="G136">
+        <v>1518.972406339341</v>
+      </c>
+      <c r="H136">
+        <v>68.06362663822028</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>-6341.795</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~1)pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F137">
+        <v>6</v>
+      </c>
+      <c r="G137">
+        <v>1518.972406339341</v>
+      </c>
+      <c r="H137">
+        <v>68.06362663822028</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>-6341.795</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F138">
+        <v>6</v>
+      </c>
+      <c r="G138">
+        <v>1519.556906339341</v>
+      </c>
+      <c r="H138">
+        <v>68.64812663822022</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>-6341.2104</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Phi(~Time)p(~Time)pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F139">
+        <v>6</v>
+      </c>
+      <c r="G139">
+        <v>1519.556906339341</v>
+      </c>
+      <c r="H139">
+        <v>68.64812663822022</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>-6341.2104</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F140">
+        <v>7</v>
+      </c>
+      <c r="G140">
+        <v>1520.410151741293</v>
+      </c>
+      <c r="H140">
+        <v>69.50137204017255</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>-6342.3747</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~wind)pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F141">
+        <v>7</v>
+      </c>
+      <c r="G141">
+        <v>1520.410151741293</v>
+      </c>
+      <c r="H141">
+        <v>69.50137204017255</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>-6342.3747</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F142">
+        <v>7</v>
+      </c>
+      <c r="G142">
+        <v>1520.823551741293</v>
+      </c>
+      <c r="H142">
+        <v>69.91477204017247</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>-6341.9612</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F143">
+        <v>7</v>
+      </c>
+      <c r="G143">
+        <v>1520.823551741293</v>
+      </c>
+      <c r="H143">
+        <v>69.91477204017247</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>-6341.9612</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>~temp + sundur</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F144">
+        <v>6</v>
+      </c>
+      <c r="G144">
+        <v>1522.758506339341</v>
+      </c>
+      <c r="H144">
+        <v>71.84972663822032</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>-6338.0088</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>~temp + sundur</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + sundur)pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F145">
+        <v>6</v>
+      </c>
+      <c r="G145">
+        <v>1522.758506339341</v>
+      </c>
+      <c r="H145">
+        <v>71.84972663822032</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>-6338.0088</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F146">
+        <v>8</v>
+      </c>
+      <c r="G146">
+        <v>1523.470507965153</v>
+      </c>
+      <c r="H146">
+        <v>72.56172826403167</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>-6341.3342</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time + I(Time^2))N(~Time)</t>
+        </is>
+      </c>
+      <c r="F147">
+        <v>8</v>
+      </c>
+      <c r="G147">
+        <v>1523.470507965153</v>
+      </c>
+      <c r="H147">
+        <v>72.56172826403167</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>-6341.3342</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F148">
+        <v>7</v>
+      </c>
+      <c r="G148">
+        <v>1523.560951741293</v>
+      </c>
+      <c r="H148">
+        <v>72.65217204017245</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>-6339.2238</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time + I(Time^2))N(~Time)</t>
+        </is>
+      </c>
+      <c r="F149">
+        <v>7</v>
+      </c>
+      <c r="G149">
+        <v>1523.560951741293</v>
+      </c>
+      <c r="H149">
+        <v>72.65217204017245</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>-6339.2238</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F150">
+        <v>7</v>
+      </c>
+      <c r="G150">
+        <v>1524.191251741293</v>
+      </c>
+      <c r="H150">
+        <v>73.28247204017248</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>-6338.5935</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~Time)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F151">
+        <v>7</v>
+      </c>
+      <c r="G151">
+        <v>1524.191251741293</v>
+      </c>
+      <c r="H151">
+        <v>73.28247204017248</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>-6338.5935</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F152">
+        <v>6</v>
+      </c>
+      <c r="G152">
+        <v>1524.728706339341</v>
+      </c>
+      <c r="H152">
+        <v>73.81992663822029</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>-6336.0387</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~Time)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F153">
+        <v>6</v>
+      </c>
+      <c r="G153">
+        <v>1524.728706339341</v>
+      </c>
+      <c r="H153">
+        <v>73.81992663822029</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>-6336.0387</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F154">
+        <v>9</v>
+      </c>
+      <c r="G154">
+        <v>1526.675179701121</v>
+      </c>
+      <c r="H154">
+        <v>75.76639999999998</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>-6340.1521</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Phi(~Time + I(Time^2))p(~Time)pent(~Time + I(Time^2))N(~Time)</t>
+        </is>
+      </c>
+      <c r="F155">
+        <v>9</v>
+      </c>
+      <c r="G155">
+        <v>1526.675179701121</v>
+      </c>
+      <c r="H155">
+        <v>75.76639999999998</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>-6340.1521</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F156">
+        <v>7</v>
+      </c>
+      <c r="G156">
+        <v>1528.162951741293</v>
+      </c>
+      <c r="H156">
+        <v>77.25417204017253</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>-6334.6218</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time + I(Time^2))N(~Time)</t>
+        </is>
+      </c>
+      <c r="F157">
+        <v>7</v>
+      </c>
+      <c r="G157">
+        <v>1528.162951741293</v>
+      </c>
+      <c r="H157">
+        <v>77.25417204017253</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>-6334.6218</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F158">
+        <v>6</v>
+      </c>
+      <c r="G158">
+        <v>1532.820006339341</v>
+      </c>
+      <c r="H158">
+        <v>81.91122663822034</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>-6327.9473</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~Time)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F159">
+        <v>6</v>
+      </c>
+      <c r="G159">
+        <v>1532.820006339341</v>
+      </c>
+      <c r="H159">
+        <v>81.91122663822034</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>-6327.9473</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F160">
+        <v>6</v>
+      </c>
+      <c r="G160">
+        <v>1537.733106339341</v>
+      </c>
+      <c r="H160">
+        <v>86.82432663822033</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>-6323.0343</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time + I(Time^2))N(~Time)</t>
+        </is>
+      </c>
+      <c r="F161">
+        <v>6</v>
+      </c>
+      <c r="G161">
+        <v>1537.733106339341</v>
+      </c>
+      <c r="H161">
+        <v>86.82432663822033</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>-6323.0343</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time + I(Time^2))N(~1)</t>
+        </is>
+      </c>
+      <c r="F162">
+        <v>7</v>
+      </c>
+      <c r="G162">
+        <v>1538.563251741293</v>
+      </c>
+      <c r="H162">
+        <v>87.65447204017255</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>-6324.2215</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>~Time + I(Time^2)</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time + I(Time^2))N(~Time)</t>
+        </is>
+      </c>
+      <c r="F163">
+        <v>7</v>
+      </c>
+      <c r="G163">
+        <v>1538.563251741293</v>
+      </c>
+      <c r="H163">
+        <v>87.65447204017255</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>-6324.2215</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F164">
+        <v>5</v>
+      </c>
+      <c r="G164">
+        <v>1540.514367080745</v>
+      </c>
+      <c r="H164">
+        <v>89.60558737962447</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>-6318.238</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~Time)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F165">
+        <v>5</v>
+      </c>
+      <c r="G165">
+        <v>1540.514367080745</v>
+      </c>
+      <c r="H165">
+        <v>89.60558737962447</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>-6318.238</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time)N(~1)</t>
+        </is>
+      </c>
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166">
+        <v>1541.078106339341</v>
+      </c>
+      <c r="H166">
+        <v>90.16932663822035</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>-6319.6892</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~Time)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F167">
+        <v>6</v>
+      </c>
+      <c r="G167">
+        <v>1541.078106339341</v>
+      </c>
+      <c r="H167">
+        <v>90.16932663822035</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>-6319.6892</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+      <c r="G168">
+        <v>1547.134206339341</v>
+      </c>
+      <c r="H168">
+        <v>96.22542663822037</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>-6313.6331</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>~temp + wind</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp + wind)pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F169">
+        <v>6</v>
+      </c>
+      <c r="G169">
+        <v>1547.134206339341</v>
+      </c>
+      <c r="H169">
+        <v>96.22542663822037</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>-6313.6331</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F170">
+        <v>5</v>
+      </c>
+      <c r="G170">
+        <v>1551.145567080745</v>
+      </c>
+      <c r="H170">
+        <v>100.2367873796245</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>-6307.6069</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>~temp</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~temp)pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F171">
+        <v>5</v>
+      </c>
+      <c r="G171">
+        <v>1551.145567080745</v>
+      </c>
+      <c r="H171">
+        <v>100.2367873796245</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>-6307.6069</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F172">
+        <v>5</v>
+      </c>
+      <c r="G172">
+        <v>1566.417367080745</v>
+      </c>
+      <c r="H172">
+        <v>115.5085873796245</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>-6292.335</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~Time)pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F173">
+        <v>5</v>
+      </c>
+      <c r="G173">
+        <v>1566.417367080745</v>
+      </c>
+      <c r="H173">
+        <v>115.5085873796245</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>-6292.335</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>~sundur + wind</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F174">
+        <v>6</v>
+      </c>
+      <c r="G174">
+        <v>1593.062806339341</v>
+      </c>
+      <c r="H174">
+        <v>142.1540266382203</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>-6267.7045</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>~sundur + wind</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur + wind)pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F175">
+        <v>6</v>
+      </c>
+      <c r="G175">
+        <v>1593.062806339341</v>
+      </c>
+      <c r="H175">
+        <v>142.1540266382203</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>-6267.7045</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F176">
+        <v>5</v>
+      </c>
+      <c r="G176">
+        <v>1596.588167080745</v>
+      </c>
+      <c r="H176">
+        <v>145.6793873796244</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>-6262.1642</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>~sundur</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~sundur)pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F177">
+        <v>5</v>
+      </c>
+      <c r="G177">
+        <v>1596.588167080745</v>
+      </c>
+      <c r="H177">
+        <v>145.6793873796244</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>-6262.1642</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~1)N(~1)</t>
+        </is>
+      </c>
+      <c r="F178">
+        <v>5</v>
+      </c>
+      <c r="G178">
+        <v>1608.330867080745</v>
+      </c>
+      <c r="H178">
+        <v>157.4220873796244</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>-6250.4215</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>~wind</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~wind)pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F179">
+        <v>5</v>
+      </c>
+      <c r="G179">
+        <v>1608.330867080745</v>
+      </c>
+      <c r="H179">
+        <v>157.4220873796244</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>-6250.4215</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
           <t>Phi(~1)p(~1)pent(~1)N(~1)</t>
         </is>
       </c>
-      <c r="F91">
+      <c r="F180">
         <v>4</v>
       </c>
-      <c r="G91">
+      <c r="G180">
         <v>1610.944129298572</v>
       </c>
-      <c r="H91">
+      <c r="H180">
         <v>160.0353495974514</v>
       </c>
-      <c r="I91">
+      <c r="I180">
         <v>0</v>
       </c>
-      <c r="J91">
+      <c r="J180">
+        <v>-6245.7958</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>~1</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>~Time</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Phi(~1)p(~1)pent(~1)N(~Time)</t>
+        </is>
+      </c>
+      <c r="F181">
+        <v>4</v>
+      </c>
+      <c r="G181">
+        <v>1610.944129298572</v>
+      </c>
+      <c r="H181">
+        <v>160.0353495974514</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
         <v>-6245.7958</v>
       </c>
     </row>
